--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icosl-Icos.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icosl-Icos.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.14972333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H2">
-        <v>30.44917</v>
+        <v>3.268867</v>
       </c>
       <c r="I2">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J2">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09971566666666666</v>
+        <v>0.126994</v>
       </c>
       <c r="N2">
-        <v>0.299147</v>
+        <v>0.380982</v>
       </c>
       <c r="O2">
-        <v>0.2202355141150183</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="P2">
-        <v>0.2202355141150184</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="Q2">
-        <v>1.012086428665556</v>
+        <v>0.1383754985993333</v>
       </c>
       <c r="R2">
-        <v>9.108777857990001</v>
+        <v>1.245379487394</v>
       </c>
       <c r="S2">
-        <v>0.1041380488578415</v>
+        <v>0.0122123318109782</v>
       </c>
       <c r="T2">
-        <v>0.1041380488578415</v>
+        <v>0.0122123318109782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.14972333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H3">
-        <v>30.44917</v>
+        <v>3.268867</v>
       </c>
       <c r="I3">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J3">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.40732</v>
       </c>
       <c r="O3">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="P3">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="Q3">
-        <v>1.378061769377778</v>
+        <v>0.1479416562711111</v>
       </c>
       <c r="R3">
-        <v>12.4025559244</v>
+        <v>1.33147490644</v>
       </c>
       <c r="S3">
-        <v>0.1417948702837601</v>
+        <v>0.0130565932071532</v>
       </c>
       <c r="T3">
-        <v>0.1417948702837601</v>
+        <v>0.0130565932071532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.14972333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H4">
-        <v>30.44917</v>
+        <v>3.268867</v>
       </c>
       <c r="I4">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J4">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05687166666666667</v>
+        <v>0.2408096666666667</v>
       </c>
       <c r="N4">
-        <v>0.170615</v>
+        <v>0.722429</v>
       </c>
       <c r="O4">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="P4">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="Q4">
-        <v>0.5772316821722223</v>
+        <v>0.2623915908825556</v>
       </c>
       <c r="R4">
-        <v>5.195085139550001</v>
+        <v>2.361524317943</v>
       </c>
       <c r="S4">
-        <v>0.05939392073422306</v>
+        <v>0.02315737399108926</v>
       </c>
       <c r="T4">
-        <v>0.05939392073422306</v>
+        <v>0.02315737399108926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.14972333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H5">
-        <v>30.44917</v>
+        <v>3.268867</v>
       </c>
       <c r="I5">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J5">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1604076666666666</v>
+        <v>0.438839</v>
       </c>
       <c r="N5">
-        <v>0.481223</v>
+        <v>1.316517</v>
       </c>
       <c r="O5">
-        <v>0.3542819911580977</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="P5">
-        <v>0.3542819911580978</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="Q5">
-        <v>1.628093437212222</v>
+        <v>0.4781687751376667</v>
       </c>
       <c r="R5">
-        <v>14.65284093491</v>
+        <v>4.303518976239</v>
       </c>
       <c r="S5">
-        <v>0.1675217344165812</v>
+        <v>0.04220079279019372</v>
       </c>
       <c r="T5">
-        <v>0.1675217344165813</v>
+        <v>0.04220079279019372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.629727</v>
       </c>
       <c r="I6">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="J6">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09971566666666666</v>
+        <v>0.126994</v>
       </c>
       <c r="N6">
-        <v>0.299147</v>
+        <v>0.380982</v>
       </c>
       <c r="O6">
-        <v>0.2202355141150183</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="P6">
-        <v>0.2202355141150184</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="Q6">
-        <v>0.1871239936521111</v>
+        <v>0.2383138502126667</v>
       </c>
       <c r="R6">
-        <v>1.684115942869</v>
+        <v>2.144824651914</v>
       </c>
       <c r="S6">
-        <v>0.019254015310838</v>
+        <v>0.02103239260857748</v>
       </c>
       <c r="T6">
-        <v>0.019254015310838</v>
+        <v>0.02103239260857748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.629727</v>
       </c>
       <c r="I7">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="J7">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.40732</v>
       </c>
       <c r="O7">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="P7">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="Q7">
         <v>0.2547889335155555</v>
@@ -883,10 +883,10 @@
         <v>2.29310040164</v>
       </c>
       <c r="S7">
-        <v>0.02621636023898129</v>
+        <v>0.02248640134527558</v>
       </c>
       <c r="T7">
-        <v>0.02621636023898129</v>
+        <v>0.02248640134527558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>5.629727</v>
       </c>
       <c r="I8">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="J8">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05687166666666667</v>
+        <v>0.2408096666666667</v>
       </c>
       <c r="N8">
-        <v>0.170615</v>
+        <v>0.722429</v>
       </c>
       <c r="O8">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="P8">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="Q8">
-        <v>0.1067239857894445</v>
+        <v>0.4518975607647778</v>
       </c>
       <c r="R8">
-        <v>0.9605158721050001</v>
+        <v>4.067078046883</v>
       </c>
       <c r="S8">
-        <v>0.01098130291214228</v>
+        <v>0.03988222635143399</v>
       </c>
       <c r="T8">
-        <v>0.01098130291214228</v>
+        <v>0.03988222635143399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.629727</v>
       </c>
       <c r="I9">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="J9">
-        <v>0.08742466167732858</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1604076666666666</v>
+        <v>0.438839</v>
       </c>
       <c r="N9">
-        <v>0.481223</v>
+        <v>1.316517</v>
       </c>
       <c r="O9">
-        <v>0.3542819911580977</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="P9">
-        <v>0.3542819911580978</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="Q9">
-        <v>0.3010171240134444</v>
+        <v>0.8235145889843333</v>
       </c>
       <c r="R9">
-        <v>2.709154116121</v>
+        <v>7.411631300859</v>
       </c>
       <c r="S9">
-        <v>0.03097298321536701</v>
+        <v>0.07267929303711619</v>
       </c>
       <c r="T9">
-        <v>0.03097298321536701</v>
+        <v>0.07267929303711619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5985983333333333</v>
+        <v>0.6928603333333333</v>
       </c>
       <c r="H10">
-        <v>1.795795</v>
+        <v>2.078581</v>
       </c>
       <c r="I10">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="J10">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09971566666666666</v>
+        <v>0.126994</v>
       </c>
       <c r="N10">
-        <v>0.299147</v>
+        <v>0.380982</v>
       </c>
       <c r="O10">
-        <v>0.2202355141150183</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="P10">
-        <v>0.2202355141150184</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="Q10">
-        <v>0.05968963187388888</v>
+        <v>0.08798910517133332</v>
       </c>
       <c r="R10">
-        <v>0.5372066868649999</v>
+        <v>0.7919019465419999</v>
       </c>
       <c r="S10">
-        <v>0.006141730216247845</v>
+        <v>0.007765479864428522</v>
       </c>
       <c r="T10">
-        <v>0.006141730216247847</v>
+        <v>0.007765479864428522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5985983333333333</v>
+        <v>0.6928603333333333</v>
       </c>
       <c r="H11">
-        <v>1.795795</v>
+        <v>2.078581</v>
       </c>
       <c r="I11">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="J11">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.40732</v>
       </c>
       <c r="O11">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="P11">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="Q11">
-        <v>0.08127369104444444</v>
+        <v>0.09407195699111111</v>
       </c>
       <c r="R11">
-        <v>0.7314632193999999</v>
+        <v>0.8466476129199999</v>
       </c>
       <c r="S11">
-        <v>0.008362609525357339</v>
+        <v>0.008302322047705734</v>
       </c>
       <c r="T11">
-        <v>0.008362609525357341</v>
+        <v>0.008302322047705734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5985983333333333</v>
+        <v>0.6928603333333333</v>
       </c>
       <c r="H12">
-        <v>1.795795</v>
+        <v>2.078581</v>
       </c>
       <c r="I12">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="J12">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05687166666666667</v>
+        <v>0.2408096666666667</v>
       </c>
       <c r="N12">
-        <v>0.170615</v>
+        <v>0.722429</v>
       </c>
       <c r="O12">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="P12">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="Q12">
-        <v>0.03404328488055556</v>
+        <v>0.1668474659165556</v>
       </c>
       <c r="R12">
-        <v>0.3063895639250001</v>
+        <v>1.501627193249</v>
       </c>
       <c r="S12">
-        <v>0.003502864146540417</v>
+        <v>0.01472512573554455</v>
       </c>
       <c r="T12">
-        <v>0.003502864146540418</v>
+        <v>0.01472512573554455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5985983333333333</v>
+        <v>0.6928603333333333</v>
       </c>
       <c r="H13">
-        <v>1.795795</v>
+        <v>2.078581</v>
       </c>
       <c r="I13">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="J13">
-        <v>0.02788710186423574</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1604076666666666</v>
+        <v>0.438839</v>
       </c>
       <c r="N13">
-        <v>0.481223</v>
+        <v>1.316517</v>
       </c>
       <c r="O13">
-        <v>0.3542819911580977</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="P13">
-        <v>0.3542819911580978</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="Q13">
-        <v>0.09601976192055554</v>
+        <v>0.3040541358196666</v>
       </c>
       <c r="R13">
-        <v>0.864177857285</v>
+        <v>2.736487222376999</v>
       </c>
       <c r="S13">
-        <v>0.009879897976090136</v>
+        <v>0.02683430255150596</v>
       </c>
       <c r="T13">
-        <v>0.00987989797609014</v>
+        <v>0.02683430255150596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.840163333333335</v>
+        <v>8.364082999999999</v>
       </c>
       <c r="H14">
-        <v>26.52049</v>
+        <v>25.092249</v>
       </c>
       <c r="I14">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589975</v>
       </c>
       <c r="J14">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589976</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.09971566666666666</v>
+        <v>0.126994</v>
       </c>
       <c r="N14">
-        <v>0.299147</v>
+        <v>0.380982</v>
       </c>
       <c r="O14">
-        <v>0.2202355141150183</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="P14">
-        <v>0.2202355141150184</v>
+        <v>0.1347536544371063</v>
       </c>
       <c r="Q14">
-        <v>0.8815027802255556</v>
+        <v>1.062188356502</v>
       </c>
       <c r="R14">
-        <v>7.93352502203</v>
+        <v>9.559695208517999</v>
       </c>
       <c r="S14">
-        <v>0.09070171973009103</v>
+        <v>0.09374345015312212</v>
       </c>
       <c r="T14">
-        <v>0.09070171973009104</v>
+        <v>0.09374345015312213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.840163333333335</v>
+        <v>8.364082999999999</v>
       </c>
       <c r="H15">
-        <v>26.52049</v>
+        <v>25.092249</v>
       </c>
       <c r="I15">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589975</v>
       </c>
       <c r="J15">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589976</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.40732</v>
       </c>
       <c r="O15">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="P15">
-        <v>0.2998737396976379</v>
+        <v>0.1440694272310034</v>
       </c>
       <c r="Q15">
-        <v>1.200258442977778</v>
+        <v>1.135619429186667</v>
       </c>
       <c r="R15">
-        <v>10.8023259868</v>
+        <v>10.22057486268</v>
       </c>
       <c r="S15">
-        <v>0.1234998996495391</v>
+        <v>0.1002241106308689</v>
       </c>
       <c r="T15">
-        <v>0.1234998996495391</v>
+        <v>0.1002241106308689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.840163333333335</v>
+        <v>8.364082999999999</v>
       </c>
       <c r="H16">
-        <v>26.52049</v>
+        <v>25.092249</v>
       </c>
       <c r="I16">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589975</v>
       </c>
       <c r="J16">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589976</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05687166666666667</v>
+        <v>0.2408096666666667</v>
       </c>
       <c r="N16">
-        <v>0.170615</v>
+        <v>0.722429</v>
       </c>
       <c r="O16">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="P16">
-        <v>0.125608755029246</v>
+        <v>0.2555237460597726</v>
       </c>
       <c r="Q16">
-        <v>0.5027548223722224</v>
+        <v>2.014152039202333</v>
       </c>
       <c r="R16">
-        <v>4.524793401350001</v>
+        <v>18.127368352821</v>
       </c>
       <c r="S16">
-        <v>0.05173066723634027</v>
+        <v>0.1777590199817048</v>
       </c>
       <c r="T16">
-        <v>0.05173066723634027</v>
+        <v>0.1777590199817048</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.840163333333335</v>
+        <v>8.364082999999999</v>
       </c>
       <c r="H17">
-        <v>26.52049</v>
+        <v>25.092249</v>
       </c>
       <c r="I17">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589975</v>
       </c>
       <c r="J17">
-        <v>0.4118396621660297</v>
+        <v>0.6956653646589976</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1604076666666666</v>
+        <v>0.438839</v>
       </c>
       <c r="N17">
-        <v>0.481223</v>
+        <v>1.316517</v>
       </c>
       <c r="O17">
-        <v>0.3542819911580977</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="P17">
-        <v>0.3542819911580978</v>
+        <v>0.4656531722721176</v>
       </c>
       <c r="Q17">
-        <v>1.418029973252222</v>
+        <v>3.670485819636999</v>
       </c>
       <c r="R17">
-        <v>12.76226975927</v>
+        <v>33.034372376733</v>
       </c>
       <c r="S17">
-        <v>0.1459073755500593</v>
+        <v>0.3239387838933017</v>
       </c>
       <c r="T17">
-        <v>0.1459073755500593</v>
+        <v>0.3239387838933018</v>
       </c>
     </row>
   </sheetData>
